--- a/ChucnySlot-A algsheet.xlsx
+++ b/ChucnySlot-A algsheet.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC9F85-E8FD-49D5-A9EE-81B1DF9DA50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Batch Solver Algs" state="visible" r:id="rId4"/>
+    <sheet name="ChucnySlot RUF Gen algs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1072">
-  <si>
-    <t xml:space="preserve"> MCC </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Solutions </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1076">
+  <si>
+    <t> MCC </t>
+  </si>
+  <si>
+    <t> Solutions </t>
   </si>
   <si>
     <t>11.4</t>
@@ -3227,19 +3231,31 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">These are all the 48 ChucnySlot EOCPLS insertion algs. </t>
+  </si>
+  <si>
+    <t>Made by: Chucny</t>
+  </si>
+  <si>
+    <t>DM @chucny on Discord if you have any questions</t>
+  </si>
+  <si>
+    <t>Search "ChucnyZB" on speedsolving wiki if you want full documentation of the method.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3262,7 +3278,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3283,7 +3300,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3293,7 +3310,7 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3322,7 +3339,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3332,10 +3349,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3378,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3371,10 +3388,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3417,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3410,10 +3427,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3456,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3449,10 +3466,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +3495,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3488,10 +3505,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3534,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3527,10 +3544,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3573,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3566,10 +3583,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 8">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3612,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3605,10 +3622,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 9">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,7 +3651,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3644,10 +3661,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 10">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3690,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3683,10 +3700,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 11">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3729,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3722,10 +3739,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 12">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3768,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3761,10 +3778,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 13">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3807,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3800,10 +3817,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 14">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3846,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3839,10 +3856,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 15">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3885,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3878,10 +3895,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 16">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +3924,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3917,10 +3934,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 17">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3946,7 +3963,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3956,10 +3973,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 18">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,7 +4002,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3995,10 +4012,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 19">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4024,7 +4041,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4034,10 +4051,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 20">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,7 +4080,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4073,10 +4090,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 21">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4102,7 +4119,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4112,10 +4129,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 22">
+        <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,7 +4158,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4151,10 +4168,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 23">
+        <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,7 +4197,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4190,10 +4207,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 24">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4219,7 +4236,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4229,10 +4246,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 25">
+        <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4275,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4268,10 +4285,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 26">
+        <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,7 +4314,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4307,10 +4324,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 27">
+        <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4336,7 +4353,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4346,10 +4363,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 28">
+        <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,7 +4392,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4385,10 +4402,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 29">
+        <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,7 +4431,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4424,10 +4441,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 30">
+        <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4453,7 +4470,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4463,10 +4480,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 31">
+        <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,7 +4509,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4502,10 +4519,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 32">
+        <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4531,7 +4548,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4541,10 +4558,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 33">
+        <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,7 +4587,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4580,10 +4597,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 34">
+        <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4609,7 +4626,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4619,10 +4636,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 35">
+        <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4665,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4658,10 +4675,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 36">
+        <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4704,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4697,10 +4714,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 37">
+        <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +4743,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4736,10 +4753,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 38">
+        <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,7 +4782,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>76</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4775,10 +4792,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 39">
+        <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4804,7 +4821,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4814,10 +4831,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 40">
+        <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4860,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>80</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4853,10 +4870,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 41">
+        <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4899,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>82</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4892,10 +4909,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 42">
+        <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4921,7 +4938,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4931,10 +4948,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 43">
+        <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4960,7 +4977,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>86</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4970,10 +4987,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 44">
+        <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4999,7 +5016,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>88</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -5009,10 +5026,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 45">
+        <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5038,7 +5055,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>90</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -5048,10 +5065,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 46">
+        <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,7 +5094,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -5087,10 +5104,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 47">
+        <xdr:cNvPr id="48" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5133,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>94</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -5126,10 +5143,10 @@
     <xdr:ext cx="1428750" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 48">
+        <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5479,159 +5496,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR23"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CR27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.30869140625" customWidth="1"/>
-    <col min="2" max="2" width="30.623339843750003" customWidth="1"/>
-    <col min="3" max="3" width="6.30869140625" customWidth="1"/>
-    <col min="4" max="4" width="30.623339843750003" customWidth="1"/>
-    <col min="5" max="5" width="6.30869140625" customWidth="1"/>
-    <col min="6" max="6" width="31.86513671875" customWidth="1"/>
-    <col min="7" max="7" width="6.30869140625" customWidth="1"/>
-    <col min="8" max="8" width="29.920263671875002" customWidth="1"/>
-    <col min="9" max="9" width="6.30869140625" customWidth="1"/>
-    <col min="10" max="10" width="31.216015625" customWidth="1"/>
-    <col min="11" max="11" width="6.30869140625" customWidth="1"/>
-    <col min="12" max="12" width="32.48603515625" customWidth="1"/>
-    <col min="13" max="13" width="6.30869140625" customWidth="1"/>
-    <col min="14" max="14" width="31.216015625" customWidth="1"/>
-    <col min="15" max="15" width="6.30869140625" customWidth="1"/>
-    <col min="16" max="16" width="32.161474609375006" customWidth="1"/>
-    <col min="17" max="17" width="6.30869140625" customWidth="1"/>
-    <col min="18" max="18" width="30.298779296875" customWidth="1"/>
-    <col min="19" max="19" width="6.30869140625" customWidth="1"/>
-    <col min="20" max="20" width="30.298779296875" customWidth="1"/>
-    <col min="21" max="21" width="6.30869140625" customWidth="1"/>
-    <col min="22" max="22" width="33.673876953125" customWidth="1"/>
-    <col min="23" max="23" width="6.30869140625" customWidth="1"/>
-    <col min="24" max="24" width="31.568798828125" customWidth="1"/>
-    <col min="25" max="25" width="6.30869140625" customWidth="1"/>
-    <col min="26" max="26" width="32.189697265625" customWidth="1"/>
-    <col min="27" max="27" width="6.30869140625" customWidth="1"/>
-    <col min="28" max="28" width="31.86513671875" customWidth="1"/>
-    <col min="29" max="29" width="6.30869140625" customWidth="1"/>
-    <col min="30" max="30" width="30.919677734375004" customWidth="1"/>
-    <col min="31" max="31" width="6.30869140625" customWidth="1"/>
-    <col min="32" max="32" width="31.244238281250002" customWidth="1"/>
-    <col min="33" max="33" width="6.30869140625" customWidth="1"/>
-    <col min="34" max="34" width="29.974218750000002" customWidth="1"/>
-    <col min="35" max="35" width="6.30869140625" customWidth="1"/>
-    <col min="36" max="36" width="34.294775390625006" customWidth="1"/>
-    <col min="37" max="37" width="6.30869140625" customWidth="1"/>
-    <col min="38" max="38" width="27.328759765625" customWidth="1"/>
-    <col min="39" max="39" width="6.30869140625" customWidth="1"/>
-    <col min="40" max="40" width="33.431494140625006" customWidth="1"/>
-    <col min="41" max="41" width="6.30869140625" customWidth="1"/>
-    <col min="42" max="42" width="30.919677734375004" customWidth="1"/>
-    <col min="43" max="43" width="6.30869140625" customWidth="1"/>
-    <col min="44" max="44" width="32.48603515625" customWidth="1"/>
-    <col min="45" max="45" width="6.30869140625" customWidth="1"/>
-    <col min="46" max="46" width="33.72783203125" customWidth="1"/>
-    <col min="47" max="47" width="6.30869140625" customWidth="1"/>
-    <col min="48" max="48" width="30.78603515625" customWidth="1"/>
-    <col min="49" max="49" width="6.30869140625" customWidth="1"/>
-    <col min="50" max="50" width="32.782373046875" customWidth="1"/>
-    <col min="51" max="51" width="6.30869140625" customWidth="1"/>
-    <col min="52" max="52" width="31.86513671875" customWidth="1"/>
-    <col min="53" max="53" width="6.30869140625" customWidth="1"/>
-    <col min="54" max="54" width="31.216015625" customWidth="1"/>
-    <col min="55" max="55" width="6.30869140625" customWidth="1"/>
-    <col min="56" max="56" width="27.869970703125002" customWidth="1"/>
-    <col min="57" max="57" width="6.30869140625" customWidth="1"/>
-    <col min="58" max="58" width="32.91767578125" customWidth="1"/>
-    <col min="59" max="59" width="6.30869140625" customWidth="1"/>
-    <col min="60" max="60" width="31.621923828125002" customWidth="1"/>
-    <col min="61" max="61" width="6.30869140625" customWidth="1"/>
-    <col min="62" max="62" width="29.677880859375" customWidth="1"/>
-    <col min="63" max="63" width="6.30869140625" customWidth="1"/>
-    <col min="64" max="64" width="36.050390625000006" customWidth="1"/>
-    <col min="65" max="65" width="6.30869140625" customWidth="1"/>
-    <col min="66" max="66" width="31.162060546875" customWidth="1"/>
-    <col min="67" max="67" width="6.30869140625" customWidth="1"/>
-    <col min="68" max="68" width="31.86513671875" customWidth="1"/>
-    <col min="69" max="69" width="6.30869140625" customWidth="1"/>
-    <col min="70" max="70" width="31.86513671875" customWidth="1"/>
-    <col min="71" max="71" width="6.30869140625" customWidth="1"/>
-    <col min="72" max="72" width="31.86513671875" customWidth="1"/>
-    <col min="73" max="73" width="6.30869140625" customWidth="1"/>
-    <col min="74" max="74" width="31.486621093750003" customWidth="1"/>
-    <col min="75" max="75" width="6.30869140625" customWidth="1"/>
-    <col min="76" max="76" width="30.919677734375004" customWidth="1"/>
-    <col min="77" max="77" width="6.30869140625" customWidth="1"/>
-    <col min="78" max="78" width="30.919677734375004" customWidth="1"/>
-    <col min="79" max="79" width="6.30869140625" customWidth="1"/>
-    <col min="80" max="80" width="31.540576171875003" customWidth="1"/>
-    <col min="81" max="81" width="6.30869140625" customWidth="1"/>
-    <col min="82" max="82" width="32.9193359375" customWidth="1"/>
-    <col min="83" max="83" width="6.30869140625" customWidth="1"/>
-    <col min="84" max="84" width="35.725830078125" customWidth="1"/>
-    <col min="85" max="85" width="6.30869140625" customWidth="1"/>
-    <col min="86" max="86" width="32.91767578125" customWidth="1"/>
-    <col min="87" max="87" width="6.30869140625" customWidth="1"/>
-    <col min="88" max="88" width="31.244238281250002" customWidth="1"/>
-    <col min="89" max="89" width="6.30869140625" customWidth="1"/>
-    <col min="90" max="90" width="31.244238281250002" customWidth="1"/>
-    <col min="91" max="91" width="6.30869140625" customWidth="1"/>
-    <col min="92" max="92" width="32.810595703125" customWidth="1"/>
-    <col min="93" max="93" width="6.30869140625" customWidth="1"/>
-    <col min="94" max="94" width="31.486621093750003" customWidth="1"/>
-    <col min="95" max="95" width="6.30869140625" customWidth="1"/>
-    <col min="96" max="96" width="35.375537109375" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" customWidth="1"/>
+    <col min="8" max="8" width="29.90625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="31.1796875" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" customWidth="1"/>
+    <col min="14" max="14" width="31.1796875" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" customWidth="1"/>
+    <col min="17" max="17" width="6.26953125" customWidth="1"/>
+    <col min="18" max="18" width="30.26953125" customWidth="1"/>
+    <col min="19" max="19" width="6.26953125" customWidth="1"/>
+    <col min="20" max="20" width="30.26953125" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" customWidth="1"/>
+    <col min="22" max="22" width="33.6328125" customWidth="1"/>
+    <col min="23" max="23" width="6.26953125" customWidth="1"/>
+    <col min="24" max="24" width="31.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.26953125" customWidth="1"/>
+    <col min="26" max="26" width="32.1796875" customWidth="1"/>
+    <col min="27" max="27" width="6.26953125" customWidth="1"/>
+    <col min="28" max="28" width="31.81640625" customWidth="1"/>
+    <col min="29" max="29" width="6.26953125" customWidth="1"/>
+    <col min="30" max="30" width="30.90625" customWidth="1"/>
+    <col min="31" max="31" width="6.26953125" customWidth="1"/>
+    <col min="32" max="32" width="31.26953125" customWidth="1"/>
+    <col min="33" max="33" width="6.26953125" customWidth="1"/>
+    <col min="34" max="34" width="30" customWidth="1"/>
+    <col min="35" max="35" width="6.26953125" customWidth="1"/>
+    <col min="36" max="36" width="34.26953125" customWidth="1"/>
+    <col min="37" max="37" width="6.26953125" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" customWidth="1"/>
+    <col min="39" max="39" width="6.26953125" customWidth="1"/>
+    <col min="40" max="40" width="33.453125" customWidth="1"/>
+    <col min="41" max="41" width="6.26953125" customWidth="1"/>
+    <col min="42" max="42" width="30.90625" customWidth="1"/>
+    <col min="43" max="43" width="6.26953125" customWidth="1"/>
+    <col min="44" max="44" width="32.453125" customWidth="1"/>
+    <col min="45" max="45" width="6.26953125" customWidth="1"/>
+    <col min="46" max="46" width="33.7265625" customWidth="1"/>
+    <col min="47" max="47" width="6.26953125" customWidth="1"/>
+    <col min="48" max="48" width="30.81640625" customWidth="1"/>
+    <col min="49" max="49" width="6.26953125" customWidth="1"/>
+    <col min="50" max="50" width="32.81640625" customWidth="1"/>
+    <col min="51" max="51" width="6.26953125" customWidth="1"/>
+    <col min="52" max="52" width="31.81640625" customWidth="1"/>
+    <col min="53" max="53" width="6.26953125" customWidth="1"/>
+    <col min="54" max="54" width="31.1796875" customWidth="1"/>
+    <col min="55" max="55" width="6.26953125" customWidth="1"/>
+    <col min="56" max="56" width="27.90625" customWidth="1"/>
+    <col min="57" max="57" width="6.26953125" customWidth="1"/>
+    <col min="58" max="58" width="32.90625" customWidth="1"/>
+    <col min="59" max="59" width="6.26953125" customWidth="1"/>
+    <col min="60" max="60" width="31.6328125" customWidth="1"/>
+    <col min="61" max="61" width="6.26953125" customWidth="1"/>
+    <col min="62" max="62" width="29.6328125" customWidth="1"/>
+    <col min="63" max="63" width="6.26953125" customWidth="1"/>
+    <col min="64" max="64" width="36" customWidth="1"/>
+    <col min="65" max="65" width="6.26953125" customWidth="1"/>
+    <col min="66" max="66" width="31.1796875" customWidth="1"/>
+    <col min="67" max="67" width="6.26953125" customWidth="1"/>
+    <col min="68" max="68" width="31.81640625" customWidth="1"/>
+    <col min="69" max="69" width="6.26953125" customWidth="1"/>
+    <col min="70" max="70" width="31.81640625" customWidth="1"/>
+    <col min="71" max="71" width="6.26953125" customWidth="1"/>
+    <col min="72" max="72" width="31.81640625" customWidth="1"/>
+    <col min="73" max="73" width="6.26953125" customWidth="1"/>
+    <col min="74" max="74" width="31.453125" customWidth="1"/>
+    <col min="75" max="75" width="6.26953125" customWidth="1"/>
+    <col min="76" max="76" width="30.90625" customWidth="1"/>
+    <col min="77" max="77" width="6.26953125" customWidth="1"/>
+    <col min="78" max="78" width="30.90625" customWidth="1"/>
+    <col min="79" max="79" width="6.26953125" customWidth="1"/>
+    <col min="80" max="80" width="31.54296875" customWidth="1"/>
+    <col min="81" max="81" width="6.26953125" customWidth="1"/>
+    <col min="82" max="82" width="32.90625" customWidth="1"/>
+    <col min="83" max="83" width="6.26953125" customWidth="1"/>
+    <col min="84" max="84" width="35.7265625" customWidth="1"/>
+    <col min="85" max="85" width="6.26953125" customWidth="1"/>
+    <col min="86" max="86" width="32.90625" customWidth="1"/>
+    <col min="87" max="87" width="6.26953125" customWidth="1"/>
+    <col min="88" max="88" width="31.26953125" customWidth="1"/>
+    <col min="89" max="89" width="6.26953125" customWidth="1"/>
+    <col min="90" max="90" width="31.26953125" customWidth="1"/>
+    <col min="91" max="91" width="6.26953125" customWidth="1"/>
+    <col min="92" max="92" width="32.81640625" customWidth="1"/>
+    <col min="93" max="93" width="6.26953125" customWidth="1"/>
+    <col min="94" max="94" width="31.453125" customWidth="1"/>
+    <col min="95" max="95" width="6.26953125" customWidth="1"/>
+    <col min="96" max="96" width="35.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="150" customHeight="1" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-      <c r="D1"/>
-      <c r="F1"/>
-      <c r="H1"/>
-      <c r="J1"/>
-      <c r="L1"/>
-      <c r="N1"/>
-      <c r="P1"/>
-      <c r="R1"/>
-      <c r="T1"/>
-      <c r="V1"/>
-      <c r="X1"/>
-      <c r="Z1"/>
-      <c r="AB1"/>
-      <c r="AD1"/>
-      <c r="AF1"/>
-      <c r="AH1"/>
-      <c r="AJ1"/>
-      <c r="AL1"/>
-      <c r="AN1"/>
-      <c r="AP1"/>
-      <c r="AR1"/>
-      <c r="AT1"/>
-      <c r="AV1"/>
-      <c r="AX1"/>
-      <c r="AZ1"/>
-      <c r="BB1"/>
-      <c r="BD1"/>
-      <c r="BF1"/>
-      <c r="BH1"/>
-      <c r="BJ1"/>
-      <c r="BL1"/>
-      <c r="BN1"/>
-      <c r="BP1"/>
-      <c r="BR1"/>
-      <c r="BT1"/>
-      <c r="BV1"/>
-      <c r="BX1"/>
-      <c r="BZ1"/>
-      <c r="CB1"/>
-      <c r="CD1"/>
-      <c r="CF1"/>
-      <c r="CH1"/>
-      <c r="CJ1"/>
-      <c r="CL1"/>
-      <c r="CN1"/>
-      <c r="CP1"/>
-      <c r="CR1"/>
+    <row r="1" spans="1:96" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6211,7 +6281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -6501,7 +6571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6791,7 +6861,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7081,7 +7151,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7371,7 +7441,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -7661,7 +7731,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -7951,7 +8021,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -8241,7 +8311,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -8531,7 +8601,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -8821,7 +8891,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -9111,7 +9181,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -9401,7 +9471,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -9691,7 +9761,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -9981,7 +10051,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -10271,7 +10341,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -10561,7 +10631,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -10851,7 +10921,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -11141,7 +11211,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -11431,7 +11501,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -11721,7 +11791,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1071</v>
       </c>
@@ -12009,61 +12079,81 @@
       </c>
       <c r="CR23" t="s">
         <v>1071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="CM1:CN1"/>
+    <mergeCell ref="CO1:CP1"/>
+    <mergeCell ref="CQ1:CR1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="CK1:CL1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="CI1:CJ1"/>
-    <mergeCell ref="CK1:CL1"/>
-    <mergeCell ref="CM1:CN1"/>
-    <mergeCell ref="CO1:CP1"/>
-    <mergeCell ref="CQ1:CR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>